--- a/References/office/口算作业模板.xlsx
+++ b/References/office/口算作业模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="g:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,107 +24,253 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
-  <si>
-    <t>暑假口算作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>班级              姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 32 -  24 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8 +  84 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37 -   9 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32 +  48 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65 +  29 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45 -  28 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38 +  27 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 -   9 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73 -  68 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53 -   5 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100 -  22 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100 -  57 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67 +   5 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89 +   4 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 -  26 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 -   7 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 -  17 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8 +  92 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47 +  34 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78 +   7 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87 -   9 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72 -   5 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60 -   4 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 -   3 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 +  28 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91 -  74 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75 -  46 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27 +  35 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 -  18 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46 +   6 = </t>
-  </si>
-  <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假口算作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假口算作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 ÷   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ÷   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ×   8 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 ÷   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ×   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ×   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ×   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 ÷   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   4 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ×   4 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ×   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ÷   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ×   8 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 ÷   5 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ×   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 ÷   8 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 ÷   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 ÷   8 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   8 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ×   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ×   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ÷   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 ÷   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 ÷   5 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ＋  15 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 ÷   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 ―  15 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ×   5 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87 ＋   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ×   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 ―  23 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 ÷   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ×   4 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ×   2 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 ―   9 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 ＋  27 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ×   4 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ×   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 ÷   3 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 ―   7 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 ÷   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 ÷   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79 ＋   6 = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 ÷   4 = </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +323,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,13 +373,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +671,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:C27"/>
+      <selection activeCell="A17" sqref="A17:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -512,136 +681,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
@@ -650,132 +819,132 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
